--- a/APIC_LabEnvironment.xlsx
+++ b/APIC_LabEnvironment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03.training-assignments\FY2022-23\20220711-WD514G-Infosys-RPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5FE85A-F153-4B18-ABC9-A879C549C525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDE55C9-6984-4999-BE65-E4E77C3B03AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44DD8019-86DD-4292-9BC9-4BD1E09906AD}"/>
   </bookViews>
@@ -701,7 +701,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,7 +754,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>47</v>
@@ -934,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>41</v>
